--- a/output.xlsx
+++ b/output.xlsx
@@ -46,8 +46,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:AE2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,57 +422,298 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
-    <col width="22" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
     <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="30" customWidth="1" min="4" max="4"/>
-    <col width="52" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" style="1" min="5" max="5"/>
+    <col width="20" customWidth="1" style="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
+    <col width="20" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="20" customWidth="1" min="13" max="13"/>
+    <col width="20" customWidth="1" min="14" max="14"/>
+    <col width="20" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+    <col width="20" customWidth="1" min="18" max="18"/>
+    <col width="20" customWidth="1" min="19" max="19"/>
+    <col width="20" customWidth="1" min="20" max="20"/>
+    <col width="20" customWidth="1" min="21" max="21"/>
+    <col width="20" customWidth="1" min="22" max="22"/>
+    <col width="20" customWidth="1" min="23" max="23"/>
+    <col width="20" customWidth="1" min="24" max="24"/>
+    <col width="20" customWidth="1" min="25" max="25"/>
+    <col width="20" customWidth="1" min="26" max="26"/>
+    <col width="20" customWidth="1" min="27" max="27"/>
+    <col width="20" customWidth="1" min="28" max="28"/>
+    <col width="20" customWidth="1" min="29" max="29"/>
+    <col width="20" customWidth="1" min="30" max="30"/>
+    <col width="20" customWidth="1" min="31" max="31"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Data File</t>
-        </is>
-      </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Total Markers Counted</t>
+          <t>Perimeter(µm)</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Number of Sections</t>
+          <t>Area(µm²)</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>User Defined Mounted Thickness</t>
+          <t>Feret Max(µm)</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Estimated Population using User Defined Section Thickness</t>
+          <t>Enclosed Volume(µm³)</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Surface Area(µm²)</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>n of 3D</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Cell Body Length(µm)</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Cell Body Mean Length</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Cell Body Area (µm²)</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Cell Body Mean Area</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Cell Body Surface(µm²)</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Cell Body Mean Surface</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Cell Body Volume(µm³)</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Cell Body Mean Volume</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Axon Length(µm)</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Axon Mean Length</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Axon Area (µm²)</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Axon Mean Area</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Axon Surface(µm²)</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Axon Mean Surface</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Axon Volume(µm³)</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>Axon Mean Volume</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>Dendrite Length(µm)</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Dendrite Mean Length</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>Dendrite Area (µm²)</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>Dendrite Mean Area</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>Dendrite Surface(µm²)</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>Dendrite Mean Surface</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>Dendrite Volume(µm³)</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>Dendrite Mean Volume</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>5HTR1a P5 CTR8 lumbar</t>
+          <t>05042016 in1 08232019 gfp reconstruction</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>254</v>
+        <v>130.19</v>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>465.7</v>
       </c>
       <c r="D2" t="n">
-        <v>10</v>
+        <v>35.25</v>
       </c>
       <c r="E2" t="n">
-        <v>3484.88</v>
+        <v>1063.275887096774</v>
+      </c>
+      <c r="F2" t="n">
+        <v>524.4065322580645</v>
+      </c>
+      <c r="G2" t="n">
+        <v>124</v>
+      </c>
+      <c r="H2" t="n">
+        <v>36868.3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>38.97</v>
+      </c>
+      <c r="J2" t="n">
+        <v>96640.7</v>
+      </c>
+      <c r="K2" t="n">
+        <v>102.16</v>
+      </c>
+      <c r="L2" t="n">
+        <v>69178.3</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>3276.01</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -46,9 +46,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -414,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE2"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,298 +421,664 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="22" customWidth="1" min="2" max="2"/>
     <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" style="1" min="5" max="5"/>
-    <col width="20" customWidth="1" style="1" min="6" max="6"/>
-    <col width="20" customWidth="1" min="7" max="7"/>
-    <col width="20" customWidth="1" min="8" max="8"/>
-    <col width="20" customWidth="1" min="9" max="9"/>
-    <col width="20" customWidth="1" min="10" max="10"/>
-    <col width="20" customWidth="1" min="11" max="11"/>
-    <col width="20" customWidth="1" min="12" max="12"/>
-    <col width="20" customWidth="1" min="13" max="13"/>
-    <col width="20" customWidth="1" min="14" max="14"/>
-    <col width="20" customWidth="1" min="15" max="15"/>
-    <col width="20" customWidth="1" min="16" max="16"/>
-    <col width="20" customWidth="1" min="17" max="17"/>
-    <col width="20" customWidth="1" min="18" max="18"/>
-    <col width="20" customWidth="1" min="19" max="19"/>
-    <col width="20" customWidth="1" min="20" max="20"/>
-    <col width="20" customWidth="1" min="21" max="21"/>
-    <col width="20" customWidth="1" min="22" max="22"/>
-    <col width="20" customWidth="1" min="23" max="23"/>
-    <col width="20" customWidth="1" min="24" max="24"/>
-    <col width="20" customWidth="1" min="25" max="25"/>
-    <col width="20" customWidth="1" min="26" max="26"/>
-    <col width="20" customWidth="1" min="27" max="27"/>
-    <col width="20" customWidth="1" min="28" max="28"/>
-    <col width="20" customWidth="1" min="29" max="29"/>
-    <col width="20" customWidth="1" min="30" max="30"/>
-    <col width="20" customWidth="1" min="31" max="31"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="B1" t="inlineStr">
         <is>
-          <t>Perimeter(µm)</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Area(µm²)</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Feret Max(µm)</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
           <t>Enclosed Volume(µm³)</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Surface Area(µm²)</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>n of 3D</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Cell Body Length(µm)</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Cell Body Mean Length</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Cell Body Area (µm²)</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Cell Body Mean Area</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Cell Body Surface(µm²)</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Cell Body Mean Surface</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Cell Body Volume(µm³)</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Cell Body Mean Volume</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Axon Length(µm)</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Axon Mean Length</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Axon Area (µm²)</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Axon Mean Area</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Axon Surface(µm²)</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Axon Mean Surface</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Axon Volume(µm³)</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Axon Mean Volume</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Dendrite Length(µm)</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Dendrite Mean Length</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Dendrite Area (µm²)</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Dendrite Mean Area</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Dendrite Surface(µm²)</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Dendrite Mean Surface</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Dendrite Volume(µm³)</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Dendrite Mean Volume</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>05042016 in1 08232019 gfp reconstruction</t>
+          <t>050316 int 1 gfp reconstruction</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>130.19</v>
+        <v>831.006</v>
       </c>
       <c r="C2" t="n">
-        <v>465.7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>35.25</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1063.275887096774</v>
-      </c>
-      <c r="F2" t="n">
-        <v>524.4065322580645</v>
-      </c>
-      <c r="G2" t="n">
-        <v>124</v>
-      </c>
-      <c r="H2" t="n">
-        <v>36868.3</v>
-      </c>
-      <c r="I2" t="n">
-        <v>38.97</v>
-      </c>
-      <c r="J2" t="n">
-        <v>96640.7</v>
-      </c>
-      <c r="K2" t="n">
-        <v>102.16</v>
-      </c>
-      <c r="L2" t="n">
-        <v>69178.3</v>
-      </c>
-      <c r="M2" t="inlineStr">
+        <v>588.586</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="n">
+        <v>470.782</v>
+      </c>
+      <c r="C3" t="n">
+        <v>338.655</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="n">
+        <v>1256.012</v>
+      </c>
+      <c r="C4" t="n">
+        <v>668.277</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="n">
+        <v>412.793</v>
+      </c>
+      <c r="C5" t="n">
+        <v>311.177</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="n">
+        <v>152.076</v>
+      </c>
+      <c r="C6" t="n">
+        <v>210.922</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="n">
+        <v>631.63</v>
+      </c>
+      <c r="C7" t="n">
+        <v>535.795</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="n">
+        <v>413.48</v>
+      </c>
+      <c r="C8" t="n">
+        <v>331.547</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="n">
+        <v>486.518</v>
+      </c>
+      <c r="C9" t="n">
+        <v>332.56</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="n">
+        <v>1020.677</v>
+      </c>
+      <c r="C10" t="n">
+        <v>563.894</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="n">
+        <v>727.289</v>
+      </c>
+      <c r="C11" t="n">
+        <v>435.992</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="n">
+        <v>1416.518</v>
+      </c>
+      <c r="C12" t="n">
+        <v>737.379</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="n">
+        <v>422.471</v>
+      </c>
+      <c r="C13" t="n">
+        <v>303.548</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="n">
+        <v>398.853</v>
+      </c>
+      <c r="C14" t="n">
+        <v>326.36</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="n">
+        <v>739.942</v>
+      </c>
+      <c r="C15" t="n">
+        <v>441.932</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>05032016 int 2 gfp reconstruction</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>438.703</v>
+      </c>
+      <c r="C16" t="n">
+        <v>446.369</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="n">
+        <v>477.925</v>
+      </c>
+      <c r="C17" t="n">
+        <v>344.373</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="n">
+        <v>736.742</v>
+      </c>
+      <c r="C18" t="n">
+        <v>585.17</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="n">
+        <v>463.541</v>
+      </c>
+      <c r="C19" t="n">
+        <v>540.774</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="n">
+        <v>226.756</v>
+      </c>
+      <c r="C20" t="n">
+        <v>284.306</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="n">
+        <v>494.632</v>
+      </c>
+      <c r="C21" t="n">
+        <v>339.333</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="n">
+        <v>1097.49</v>
+      </c>
+      <c r="C22" t="n">
+        <v>625.3920000000001</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>05042016 in1 gfp reconstruction</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>841.7670000000001</v>
+      </c>
+      <c r="C23" t="n">
+        <v>482.661</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="n">
+        <v>651.204</v>
+      </c>
+      <c r="C24" t="n">
+        <v>408.74</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="n">
+        <v>531.494</v>
+      </c>
+      <c r="C25" t="n">
+        <v>350.649</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="n">
+        <v>1185.477</v>
+      </c>
+      <c r="C26" t="n">
+        <v>691.817</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="n">
+        <v>1308.829</v>
+      </c>
+      <c r="C27" t="n">
+        <v>674.495</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="n">
+        <v>2074.021</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1144.46</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="n">
+        <v>1121.895</v>
+      </c>
+      <c r="C29" t="n">
+        <v>657.3680000000001</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="n">
+        <v>946.394</v>
+      </c>
+      <c r="C30" t="n">
+        <v>736.0599999999999</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="n">
+        <v>245.056</v>
+      </c>
+      <c r="C31" t="n">
+        <v>303.276</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="n">
+        <v>596.498</v>
+      </c>
+      <c r="C32" t="n">
+        <v>395.123</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="n">
+        <v>901.1609999999999</v>
+      </c>
+      <c r="C33" t="n">
+        <v>638.819</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="n">
+        <v>677.47</v>
+      </c>
+      <c r="C34" t="n">
+        <v>431.468</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="n">
+        <v>916.175</v>
+      </c>
+      <c r="C35" t="n">
+        <v>579.6609999999999</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="n">
+        <v>715.128</v>
+      </c>
+      <c r="C36" t="n">
+        <v>465.556</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="n">
+        <v>1038.859</v>
+      </c>
+      <c r="C37" t="n">
+        <v>601.673</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="n">
+        <v>1329.903</v>
+      </c>
+      <c r="C38" t="n">
+        <v>718.085</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="n">
+        <v>1009.607</v>
+      </c>
+      <c r="C39" t="n">
+        <v>634.1079999999999</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="n">
+        <v>912.287</v>
+      </c>
+      <c r="C40" t="n">
+        <v>522.35</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="n">
+        <v>1644.25</v>
+      </c>
+      <c r="C41" t="n">
+        <v>846.62</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="n">
+        <v>888.667</v>
+      </c>
+      <c r="C42" t="n">
+        <v>591.933</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="n">
+        <v>692.394</v>
+      </c>
+      <c r="C43" t="n">
+        <v>520.559</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="n">
+        <v>1028.359</v>
+      </c>
+      <c r="C44" t="n">
+        <v>631.157</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="n">
+        <v>798.551</v>
+      </c>
+      <c r="C45" t="n">
+        <v>462.502</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="n">
+        <v>1070.291</v>
+      </c>
+      <c r="C46" t="n">
+        <v>582.058</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="n">
+        <v>700.5890000000001</v>
+      </c>
+      <c r="C47" t="n">
+        <v>420.918</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="n">
+        <v>2606.72</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1176.77</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" t="n">
+        <v>886.727</v>
+      </c>
+      <c r="C49" t="n">
+        <v>536.63</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="n">
+        <v>712.773</v>
+      </c>
+      <c r="C50" t="n">
+        <v>427.826</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="n">
+        <v>757.766</v>
+      </c>
+      <c r="C51" t="n">
+        <v>446.913</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" t="n">
+        <v>797.21</v>
+      </c>
+      <c r="C52" t="n">
+        <v>501.586</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" t="n">
+        <v>822.24</v>
+      </c>
+      <c r="C53" t="n">
+        <v>525.104</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="n">
+        <v>1076.013</v>
+      </c>
+      <c r="C54" t="n">
+        <v>613.164</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="N2" t="n">
-        <v>3276.01</v>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0</v>
+    </row>
+    <row r="56">
+      <c r="B56" t="n">
+        <v>741.476</v>
+      </c>
+      <c r="C56" t="n">
+        <v>460.966</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" t="n">
+        <v>1205.938</v>
+      </c>
+      <c r="C57" t="n">
+        <v>665.308</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" t="n">
+        <v>860.191</v>
+      </c>
+      <c r="C58" t="n">
+        <v>563.907</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" t="n">
+        <v>1968.958</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1034.485</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" t="n">
+        <v>753.779</v>
+      </c>
+      <c r="C60" t="n">
+        <v>444.263</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" t="n">
+        <v>1298.578</v>
+      </c>
+      <c r="C61" t="n">
+        <v>669.6420000000001</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="n">
+        <v>867.0119999999999</v>
+      </c>
+      <c r="C62" t="n">
+        <v>514.022</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" t="n">
+        <v>786.701</v>
+      </c>
+      <c r="C63" t="n">
+        <v>736.885</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" t="n">
+        <v>1008.67</v>
+      </c>
+      <c r="C64" t="n">
+        <v>584.617</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" t="n">
+        <v>453.984</v>
+      </c>
+      <c r="C65" t="n">
+        <v>327.551</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" t="n">
+        <v>1260.506</v>
+      </c>
+      <c r="C66" t="n">
+        <v>684.21</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" t="n">
+        <v>1181.098</v>
+      </c>
+      <c r="C67" t="n">
+        <v>670.097</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" t="n">
+        <v>2331.988</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1222.946</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" t="n">
+        <v>923.949</v>
+      </c>
+      <c r="C69" t="n">
+        <v>552.277</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" t="n">
+        <v>712.395</v>
+      </c>
+      <c r="C70" t="n">
+        <v>520.529</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" t="n">
+        <v>315.318</v>
+      </c>
+      <c r="C71" t="n">
+        <v>336.704</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" t="n">
+        <v>1051.998</v>
+      </c>
+      <c r="C72" t="n">
+        <v>709.1950000000001</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" t="n">
+        <v>1780.66</v>
+      </c>
+      <c r="C73" t="n">
+        <v>917.117</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" t="n">
+        <v>1178.51</v>
+      </c>
+      <c r="C74" t="n">
+        <v>729.308</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" t="n">
+        <v>1003.315</v>
+      </c>
+      <c r="C75" t="n">
+        <v>579.0890000000001</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" t="n">
+        <v>1016.663</v>
+      </c>
+      <c r="C76" t="n">
+        <v>549.6369999999999</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" t="n">
+        <v>1363.362</v>
+      </c>
+      <c r="C77" t="n">
+        <v>785.9349999999999</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="B78" t="n">
+        <v>745.022</v>
+      </c>
+      <c r="C78" t="n">
+        <v>480.217</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="B79" t="n">
+        <v>731.357</v>
+      </c>
+      <c r="C79" t="n">
+        <v>513.931</v>
       </c>
     </row>
   </sheetData>
